--- a/Excel/Common/Tech.xlsx
+++ b/Excel/Common/Tech.xlsx
@@ -78,7 +78,7 @@
     <t>(list#sep=:|),string</t>
   </si>
   <si>
-    <t>(map#sep,|),int,int</t>
+    <t>(map#sep=,|),int,int</t>
   </si>
   <si>
     <t>##group</t>
@@ -224,7 +224,7 @@
     <t>Itemicon_Book_Blue</t>
   </si>
   <si>
-    <t>1,1000|2,1000​</t>
+    <t>1,1000|2,1000</t>
   </si>
   <si>
     <t>骑士基础战技理论</t>
@@ -251,7 +251,7 @@
     <t>轻步兵行军速度 + 10%</t>
   </si>
   <si>
-    <t>1,2000|2,2000​</t>
+    <t>1,2000|2,2000</t>
   </si>
   <si>
     <t>轻骑士训练规范</t>
@@ -275,7 +275,7 @@
     <t>资源仓库防护 + 5%</t>
   </si>
   <si>
-    <t>1,3000|2,3000​</t>
+    <t>1,3000|2,3000</t>
   </si>
   <si>
     <t>简易魔纹防御工事</t>
@@ -296,7 +296,7 @@
     <t>轻步兵攻击力 + 30%，10% 概率击退目标</t>
   </si>
   <si>
-    <t>1,4000|2,4000​</t>
+    <t>1,4000|2,4000</t>
   </si>
   <si>
     <t>强化骑士战技的秘术</t>
@@ -323,7 +323,7 @@
     <t>侦查范围扩大 1 格</t>
   </si>
   <si>
-    <t>1,5000|2,5000​</t>
+    <t>1,5000|2,5000</t>
   </si>
   <si>
     <t>霜地骑士隐蔽之术</t>
@@ -344,7 +344,7 @@
     <t>基地防御值额外 + 25%，防御塔攻击间隔 - 15%</t>
   </si>
   <si>
-    <t>1,6000|2,6000​</t>
+    <t>1,6000|2,6000</t>
   </si>
   <si>
     <t>岩石附魔加固之术</t>
@@ -365,7 +365,7 @@
     <t>提前 60 秒预警空中单位，防空伤害 + 20%</t>
   </si>
   <si>
-    <t>1,7000|2,7000​</t>
+    <t>1,7000|2,7000</t>
   </si>
   <si>
     <t>监测空域的魔法阵</t>
@@ -392,7 +392,7 @@
     <t>携带盾牌减伤 15%</t>
   </si>
   <si>
-    <t>1,8000|2,8000​</t>
+    <t>1,8000|2,8000</t>
   </si>
   <si>
     <t>重骑士装备配置指南</t>
@@ -416,7 +416,7 @@
     <t>部队集结速度 + 20%</t>
   </si>
   <si>
-    <t>1,9000|2,9000​</t>
+    <t>1,9000|2,9000</t>
   </si>
   <si>
     <t>骑士协同作战符文</t>
@@ -440,7 +440,7 @@
     <t>侦查单位速度 + 25%</t>
   </si>
   <si>
-    <t>1,10000|2,10000​</t>
+    <t>1,10000|2,10000</t>
   </si>
   <si>
     <t>骑士暗影潜入之术</t>
@@ -467,7 +467,7 @@
     <t>野外续航时间 + 3600 秒</t>
   </si>
   <si>
-    <t>1,11000|2,11000​</t>
+    <t>1,11000|2,11000</t>
   </si>
   <si>
     <t>适应不同环境的咒语</t>
@@ -491,7 +491,7 @@
     <t>基地内单位生命值 + 10%</t>
   </si>
   <si>
-    <t>1,12000|2,12000​</t>
+    <t>1,12000|2,12000</t>
   </si>
   <si>
     <t>带圣痕的要塞防御阵</t>
@@ -512,7 +512,7 @@
     <t>击退敌人时触发 “追击”，额外造成 15% 伤害</t>
   </si>
   <si>
-    <t>1,13000|2,13000​</t>
+    <t>1,13000|2,13000</t>
   </si>
   <si>
     <t>防御反击用圣印</t>
@@ -539,7 +539,7 @@
     <t>空中单位警报优先级提升</t>
   </si>
   <si>
-    <t>1,14000|2,14000​</t>
+    <t>1,14000|2,14000</t>
   </si>
   <si>
     <t>空域防御弹幕魔法阵</t>
@@ -563,7 +563,7 @@
     <t>敌方行军速度 - 10%</t>
   </si>
   <si>
-    <t>1,15000|2,15000​</t>
+    <t>1,15000|2,15000</t>
   </si>
   <si>
     <t>干扰敌方魔能的法术</t>
@@ -587,7 +587,7 @@
     <t>碾压小型障碍物</t>
   </si>
   <si>
-    <t>1,16000|2,16000​</t>
+    <t>1,16000|2,16000</t>
   </si>
   <si>
     <t>机械骑士突击战术</t>
@@ -611,7 +611,7 @@
     <t>步兵编队上限 + 50%，集群攻击伤害叠加 10%</t>
   </si>
   <si>
-    <t>1,17000|2,17000​</t>
+    <t>1,17000|2,17000</t>
   </si>
   <si>
     <t>骑士集群作战阵型</t>
@@ -635,7 +635,7 @@
     <t>部队补给消耗降低 15%</t>
   </si>
   <si>
-    <t>1,18000|2,18000​</t>
+    <t>1,18000|2,18000</t>
   </si>
   <si>
     <t>多职业骑士合成团配置</t>
@@ -656,7 +656,7 @@
     <t>指挥官技能冷却 - 20%，部队指令响应 + 30%</t>
   </si>
   <si>
-    <t>1,19000|2,19000​</t>
+    <t>1,19000|2,19000</t>
   </si>
   <si>
     <t>强化战场指令的圣术</t>
@@ -683,7 +683,7 @@
     <t>行动后 70% 概率撤离</t>
   </si>
   <si>
-    <t>1,20000|2,20000​</t>
+    <t>1,20000|2,20000</t>
   </si>
   <si>
     <t>骑士敌后破坏战术</t>
@@ -704,7 +704,7 @@
     <t>侦查覆盖 80% 地图，实时监控敌方部队</t>
   </si>
   <si>
-    <t>1,21000|2,21000​</t>
+    <t>1,21000|2,21000</t>
   </si>
   <si>
     <t>覆盖全域的侦查魔法网</t>
@@ -725,7 +725,7 @@
     <t>严寒环境战力不衰减，生命值 1%/ 分钟恢复</t>
   </si>
   <si>
-    <t>1,22000|2,22000​</t>
+    <t>1,22000|2,22000</t>
   </si>
   <si>
     <t>凛冬环境骑士专用咒语</t>
@@ -749,7 +749,7 @@
     <t>野外驻扎资源消耗降低 30%，可采集应急资源</t>
   </si>
   <si>
-    <t>1,23000|2,23000​</t>
+    <t>1,23000|2,23000</t>
   </si>
   <si>
     <t>骑士野外生存魔法</t>
@@ -773,7 +773,7 @@
     <t>免疫单体高伤技能</t>
   </si>
   <si>
-    <t>1,24000|2,24000​</t>
+    <t>1,24000|2,24000</t>
   </si>
   <si>
     <t>圣域级终极防御手段</t>
@@ -797,7 +797,7 @@
     <t>矩阵威慑敌方单位</t>
   </si>
   <si>
-    <t>1,25000|2,25000​</t>
+    <t>1,25000|2,25000</t>
   </si>
   <si>
     <t>激活防御阵的圣契</t>
@@ -824,7 +824,7 @@
     <t>突袭小队隐蔽性 + 40%</t>
   </si>
   <si>
-    <t>1,26000|2,26000​</t>
+    <t>1,26000|2,26000</t>
   </si>
   <si>
     <t>突袭式防御反击技巧</t>
@@ -845,7 +845,7 @@
     <t>基地与防御建筑协同，防御效率 + 40%</t>
   </si>
   <si>
-    <t>1,27000|2,27000​</t>
+    <t>1,27000|2,27000</t>
   </si>
   <si>
     <t>全域防御用魔法符</t>
@@ -869,7 +869,7 @@
     <t>击落目标回收 30% 零件</t>
   </si>
   <si>
-    <t>1,28000|2,28000​</t>
+    <t>1,28000|2,28000</t>
   </si>
   <si>
     <t>空域饱和魔法打击</t>
@@ -896,7 +896,7 @@
     <t>拦截弹冷却 300 秒</t>
   </si>
   <si>
-    <t>1,29000|2,29000​</t>
+    <t>1,29000|2,29000</t>
   </si>
   <si>
     <t>空域目标拦截系统</t>
@@ -920,7 +920,7 @@
     <t>敌方雷达失效</t>
   </si>
   <si>
-    <t>1,30000|2,30000​</t>
+    <t>1,30000|2,30000</t>
   </si>
   <si>
     <t>压制魔能的区域法术</t>
@@ -941,7 +941,7 @@
     <t>干扰敌方部队通信，使其攻击准确率 - 20%</t>
   </si>
   <si>
-    <t>1,31000|2,31000​</t>
+    <t>1,31000|2,31000</t>
   </si>
   <si>
     <t>干扰信息传递的咒语</t>
@@ -968,7 +968,7 @@
     <t>免疫中毒 / 减速效果</t>
   </si>
   <si>
-    <t>1,32000|2,32000​</t>
+    <t>1,32000|2,32000</t>
   </si>
   <si>
     <t>重甲魔法机甲</t>
@@ -989,7 +989,7 @@
     <t>机械化步兵突击范围 + 3 格，群体伤害 + 20%</t>
   </si>
   <si>
-    <t>1,33000|2,33000​</t>
+    <t>1,33000|2,33000</t>
   </si>
   <si>
     <t>突击阵型用圣纹</t>
@@ -1013,7 +1013,7 @@
     <t>步兵行军速度 + 15%</t>
   </si>
   <si>
-    <t>1,34000|2,34000​</t>
+    <t>1,34000|2,34000</t>
   </si>
   <si>
     <t>骑士军团级作战战术</t>
@@ -1040,7 +1040,7 @@
     <t>可占领敌方建筑据点</t>
   </si>
   <si>
-    <t>1,35000|2,35000​</t>
+    <t>1,35000|2,35000</t>
   </si>
   <si>
     <t>骑士巷战专项训练</t>
@@ -1064,7 +1064,7 @@
     <t>部队损耗降低 20%</t>
   </si>
   <si>
-    <t>1,36000|2,36000​</t>
+    <t>1,36000|2,36000</t>
   </si>
   <si>
     <t>全职业合成骑士军</t>
@@ -1088,7 +1088,7 @@
     <t>联动技能冷却 - 15%</t>
   </si>
   <si>
-    <t>1,37000|2,37000​</t>
+    <t>1,37000|2,37000</t>
   </si>
   <si>
     <t>跨职业协同魔法咒语</t>
@@ -1112,7 +1112,7 @@
     <t>指挥官技能效果 + 30%，部队指令响应无延迟</t>
   </si>
   <si>
-    <t>1,38000|2,38000​</t>
+    <t>1,38000|2,38000</t>
   </si>
   <si>
     <t>战场决策神圣中枢</t>
@@ -1136,7 +1136,7 @@
     <t>新兵训练周期缩短 40%</t>
   </si>
   <si>
-    <t>1,39000|2,39000​</t>
+    <t>1,39000|2,39000</t>
   </si>
   <si>
     <t>幻境中训练战技</t>
@@ -1160,7 +1160,7 @@
     <t>掠夺后 90% 概率隐蔽撤离</t>
   </si>
   <si>
-    <t>1,40000|2,40000​</t>
+    <t>1,40000|2,40000</t>
   </si>
   <si>
     <t>骑士敌后掠夺战术</t>
@@ -1187,7 +1187,7 @@
     <t>可破坏敌方低级防御建筑</t>
   </si>
   <si>
-    <t>1,41000|2,41000​</t>
+    <t>1,41000|2,41000</t>
   </si>
   <si>
     <t>强化破坏效果的符文</t>
@@ -1211,7 +1211,7 @@
     <t>可识别敌方伪装单位</t>
   </si>
   <si>
-    <t>1,42000|2,42000​</t>
+    <t>1,42000|2,42000</t>
   </si>
   <si>
     <t>借助星界的侦查法术</t>
@@ -1232,7 +1232,7 @@
     <t>提前 300 秒预警敌方部队，拦截成功率 + 40%</t>
   </si>
   <si>
-    <t>1,43000|2,43000​</t>
+    <t>1,43000|2,43000</t>
   </si>
   <si>
     <t>预警与拦截一体化系统</t>
@@ -1259,7 +1259,7 @@
     <t>免疫严寒减速效果</t>
   </si>
   <si>
-    <t>1,44000|2,44000​</t>
+    <t>1,44000|2,44000</t>
   </si>
   <si>
     <t>极寒环境骑士装备</t>
@@ -1283,7 +1283,7 @@
     <t>野外治疗速度 + 50%</t>
   </si>
   <si>
-    <t>1,45000|2,45000​</t>
+    <t>1,45000|2,45000</t>
   </si>
   <si>
     <t>骑士小队生存协同咒语</t>
@@ -1307,7 +1307,7 @@
     <t>据点可隐藏资源储备</t>
   </si>
   <si>
-    <t>1,46000|2,46000​</t>
+    <t>1,46000|2,46000</t>
   </si>
   <si>
     <t>野外附魔建造技术</t>
@@ -1331,7 +1331,7 @@
     <t>野外遭遇战时，部队战力临时 + 25%（持续 1800 秒）</t>
   </si>
   <si>
-    <t>1,47000|2,47000​</t>
+    <t>1,47000|2,4700</t>
   </si>
   <si>
     <t>神圣应急作战方案</t>
@@ -1355,7 +1355,7 @@
     <t>要塞内部队伤害 + 20%</t>
   </si>
   <si>
-    <t>1,48000|2,48000​</t>
+    <t>1,48000|2,48000</t>
   </si>
   <si>
     <t>圣城终极防御体系</t>
@@ -1376,7 +1376,7 @@
     <t>矩阵可反弹 10% 伤害</t>
   </si>
   <si>
-    <t>1,49000|2,49000​</t>
+    <t>1,49000|2,49000</t>
   </si>
   <si>
     <t>末日圣战契约</t>
@@ -4202,7 +4202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4214,6 +4214,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4565,8 +4568,8 @@
   <sheetPr/>
   <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G128" workbookViewId="0">
-      <selection activeCell="O138" sqref="O138"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4832,7 +4835,7 @@
       <c r="L7" t="s">
         <v>53</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N7" t="s">
@@ -4877,7 +4880,7 @@
       <c r="L8" t="s">
         <v>53</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="N8" t="s">
@@ -4922,7 +4925,7 @@
       <c r="L9" t="s">
         <v>53</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="N9" t="s">
@@ -4965,7 +4968,7 @@
       <c r="L10" t="s">
         <v>53</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="N10" t="s">
@@ -5010,7 +5013,7 @@
       <c r="L11" t="s">
         <v>53</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="4" t="s">
         <v>87</v>
       </c>
       <c r="N11" t="s">
@@ -5053,7 +5056,7 @@
       <c r="L12" t="s">
         <v>53</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="4" t="s">
         <v>94</v>
       </c>
       <c r="N12" t="s">
@@ -5096,7 +5099,7 @@
       <c r="L13" t="s">
         <v>53</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="4" t="s">
         <v>101</v>
       </c>
       <c r="N13" t="s">
@@ -5141,7 +5144,7 @@
       <c r="L14" t="s">
         <v>53</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="4" t="s">
         <v>110</v>
       </c>
       <c r="N14" t="s">
@@ -5186,7 +5189,7 @@
       <c r="L15" t="s">
         <v>53</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="4" t="s">
         <v>118</v>
       </c>
       <c r="N15" t="s">
@@ -5231,7 +5234,7 @@
       <c r="L16" t="s">
         <v>53</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="4" t="s">
         <v>126</v>
       </c>
       <c r="N16" t="s">
@@ -5276,7 +5279,7 @@
       <c r="L17" t="s">
         <v>53</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="4" t="s">
         <v>135</v>
       </c>
       <c r="N17" t="s">
@@ -5321,7 +5324,7 @@
       <c r="L18" t="s">
         <v>53</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="4" t="s">
         <v>143</v>
       </c>
       <c r="N18" t="s">
@@ -5364,7 +5367,7 @@
       <c r="L19" t="s">
         <v>53</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="4" t="s">
         <v>150</v>
       </c>
       <c r="N19" t="s">
@@ -5409,7 +5412,7 @@
       <c r="L20" t="s">
         <v>53</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="4" t="s">
         <v>159</v>
       </c>
       <c r="N20" t="s">
@@ -5454,7 +5457,7 @@
       <c r="L21" t="s">
         <v>53</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="4" t="s">
         <v>167</v>
       </c>
       <c r="N21" t="s">
@@ -5499,7 +5502,7 @@
       <c r="L22" t="s">
         <v>53</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="4" t="s">
         <v>175</v>
       </c>
       <c r="N22" t="s">
@@ -5542,7 +5545,7 @@
       <c r="L23" t="s">
         <v>53</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="4" t="s">
         <v>183</v>
       </c>
       <c r="N23" t="s">
@@ -5587,7 +5590,7 @@
       <c r="L24" t="s">
         <v>53</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="4" t="s">
         <v>191</v>
       </c>
       <c r="N24" t="s">
@@ -5630,7 +5633,7 @@
       <c r="L25" t="s">
         <v>53</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="4" t="s">
         <v>198</v>
       </c>
       <c r="N25" t="s">
@@ -5675,7 +5678,7 @@
       <c r="L26" t="s">
         <v>53</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="4" t="s">
         <v>207</v>
       </c>
       <c r="N26" t="s">
@@ -5717,7 +5720,7 @@
       <c r="L27" t="s">
         <v>53</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="4" t="s">
         <v>214</v>
       </c>
       <c r="N27" t="s">
@@ -5759,7 +5762,7 @@
       <c r="L28" t="s">
         <v>53</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="4" t="s">
         <v>221</v>
       </c>
       <c r="N28" t="s">
@@ -5801,7 +5804,7 @@
       <c r="L29" t="s">
         <v>53</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N29" t="s">
@@ -5845,7 +5848,7 @@
       <c r="L30" t="s">
         <v>53</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="4" t="s">
         <v>237</v>
       </c>
       <c r="N30" t="s">
@@ -5889,7 +5892,7 @@
       <c r="L31" t="s">
         <v>53</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="4" t="s">
         <v>245</v>
       </c>
       <c r="N31" t="s">
@@ -5933,7 +5936,7 @@
       <c r="L32" t="s">
         <v>53</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="4" t="s">
         <v>254</v>
       </c>
       <c r="N32" t="s">
@@ -5975,7 +5978,7 @@
       <c r="L33" t="s">
         <v>53</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="4" t="s">
         <v>261</v>
       </c>
       <c r="N33" t="s">
@@ -6019,7 +6022,7 @@
       <c r="L34" t="s">
         <v>53</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="4" t="s">
         <v>269</v>
       </c>
       <c r="N34" t="s">
@@ -6063,7 +6066,7 @@
       <c r="L35" t="s">
         <v>53</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="4" t="s">
         <v>278</v>
       </c>
       <c r="N35" t="s">
@@ -6107,7 +6110,7 @@
       <c r="L36" t="s">
         <v>53</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="4" t="s">
         <v>286</v>
       </c>
       <c r="N36" t="s">
@@ -6149,7 +6152,7 @@
       <c r="L37" t="s">
         <v>53</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="4" t="s">
         <v>293</v>
       </c>
       <c r="N37" t="s">
@@ -6193,7 +6196,7 @@
       <c r="L38" t="s">
         <v>53</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="4" t="s">
         <v>302</v>
       </c>
       <c r="N38" t="s">
@@ -6235,7 +6238,7 @@
       <c r="L39" t="s">
         <v>53</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="4" t="s">
         <v>309</v>
       </c>
       <c r="N39" t="s">
@@ -6279,7 +6282,7 @@
       <c r="L40" t="s">
         <v>53</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="4" t="s">
         <v>317</v>
       </c>
       <c r="N40" t="s">
@@ -6323,7 +6326,7 @@
       <c r="L41" t="s">
         <v>53</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="4" t="s">
         <v>326</v>
       </c>
       <c r="N41" t="s">
@@ -6367,7 +6370,7 @@
       <c r="L42" t="s">
         <v>53</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="4" t="s">
         <v>334</v>
       </c>
       <c r="N42" t="s">
@@ -6411,7 +6414,7 @@
       <c r="L43" t="s">
         <v>53</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="4" t="s">
         <v>342</v>
       </c>
       <c r="N43" t="s">
@@ -6453,7 +6456,7 @@
       <c r="L44" t="s">
         <v>53</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="4" t="s">
         <v>350</v>
       </c>
       <c r="N44" t="s">
@@ -6497,7 +6500,7 @@
       <c r="L45" t="s">
         <v>53</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="4" t="s">
         <v>358</v>
       </c>
       <c r="N45" t="s">
@@ -6541,7 +6544,7 @@
       <c r="L46" t="s">
         <v>53</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="4" t="s">
         <v>366</v>
       </c>
       <c r="N46" t="s">
@@ -6585,7 +6588,7 @@
       <c r="L47" t="s">
         <v>53</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="4" t="s">
         <v>375</v>
       </c>
       <c r="N47" t="s">
@@ -6629,7 +6632,7 @@
       <c r="L48" t="s">
         <v>53</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="4" t="s">
         <v>383</v>
       </c>
       <c r="N48" t="s">
@@ -6671,7 +6674,7 @@
       <c r="L49" t="s">
         <v>53</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="4" t="s">
         <v>390</v>
       </c>
       <c r="N49" t="s">
@@ -6715,7 +6718,7 @@
       <c r="L50" t="s">
         <v>53</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="4" t="s">
         <v>399</v>
       </c>
       <c r="N50" t="s">
@@ -6759,7 +6762,7 @@
       <c r="L51" t="s">
         <v>53</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="4" t="s">
         <v>407</v>
       </c>
       <c r="N51" t="s">
@@ -6803,7 +6806,7 @@
       <c r="L52" t="s">
         <v>53</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="4" t="s">
         <v>415</v>
       </c>
       <c r="N52" t="s">
@@ -6845,7 +6848,7 @@
       <c r="L53" t="s">
         <v>53</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="4" t="s">
         <v>423</v>
       </c>
       <c r="N53" t="s">
@@ -6889,7 +6892,7 @@
       <c r="L54" t="s">
         <v>53</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="4" t="s">
         <v>431</v>
       </c>
       <c r="N54" t="s">
@@ -6930,7 +6933,7 @@
       <c r="L55" t="s">
         <v>53</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="4" t="s">
         <v>438</v>
       </c>
       <c r="N55" t="s">
@@ -6969,7 +6972,7 @@
       <c r="L56" t="s">
         <v>53</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N56" t="s">
@@ -7013,7 +7016,7 @@
       <c r="L57" t="s">
         <v>53</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="4" t="s">
         <v>63</v>
       </c>
       <c r="N57" t="s">
@@ -7057,7 +7060,7 @@
       <c r="L58" t="s">
         <v>53</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="4" t="s">
         <v>71</v>
       </c>
       <c r="N58" t="s">
@@ -7099,7 +7102,7 @@
       <c r="L59" t="s">
         <v>53</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="4" t="s">
         <v>78</v>
       </c>
       <c r="N59" t="s">
@@ -7143,7 +7146,7 @@
       <c r="L60" t="s">
         <v>53</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="4" t="s">
         <v>87</v>
       </c>
       <c r="N60" t="s">
@@ -7185,7 +7188,7 @@
       <c r="L61" t="s">
         <v>53</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="4" t="s">
         <v>94</v>
       </c>
       <c r="N61" t="s">
@@ -7229,7 +7232,7 @@
       <c r="L62" t="s">
         <v>53</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="4" t="s">
         <v>101</v>
       </c>
       <c r="N62" t="s">
@@ -7273,7 +7276,7 @@
       <c r="L63" t="s">
         <v>53</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="4" t="s">
         <v>110</v>
       </c>
       <c r="N63" t="s">
@@ -7317,7 +7320,7 @@
       <c r="L64" t="s">
         <v>53</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="4" t="s">
         <v>118</v>
       </c>
       <c r="N64" t="s">
@@ -7361,7 +7364,7 @@
       <c r="L65" t="s">
         <v>53</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="4" t="s">
         <v>126</v>
       </c>
       <c r="N65" t="s">
@@ -7405,7 +7408,7 @@
       <c r="L66" t="s">
         <v>53</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="4" t="s">
         <v>135</v>
       </c>
       <c r="N66" t="s">
@@ -7449,7 +7452,7 @@
       <c r="L67" t="s">
         <v>53</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="4" t="s">
         <v>143</v>
       </c>
       <c r="N67" t="s">
@@ -7493,7 +7496,7 @@
       <c r="L68" t="s">
         <v>53</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="4" t="s">
         <v>150</v>
       </c>
       <c r="N68" t="s">
@@ -7537,7 +7540,7 @@
       <c r="L69" t="s">
         <v>53</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="4" t="s">
         <v>159</v>
       </c>
       <c r="N69" t="s">
@@ -7581,7 +7584,7 @@
       <c r="L70" t="s">
         <v>53</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="4" t="s">
         <v>167</v>
       </c>
       <c r="N70" t="s">
@@ -7625,7 +7628,7 @@
       <c r="L71" t="s">
         <v>53</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="4" t="s">
         <v>175</v>
       </c>
       <c r="N71" t="s">
@@ -7667,7 +7670,7 @@
       <c r="L72" t="s">
         <v>53</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="4" t="s">
         <v>183</v>
       </c>
       <c r="N72" t="s">
@@ -7711,7 +7714,7 @@
       <c r="L73" t="s">
         <v>53</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="4" t="s">
         <v>191</v>
       </c>
       <c r="N73" t="s">
@@ -7755,7 +7758,7 @@
       <c r="L74" t="s">
         <v>53</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="4" t="s">
         <v>198</v>
       </c>
       <c r="N74" t="s">
@@ -7799,7 +7802,7 @@
       <c r="L75" t="s">
         <v>53</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="4" t="s">
         <v>207</v>
       </c>
       <c r="N75" t="s">
@@ -7843,7 +7846,7 @@
       <c r="L76" t="s">
         <v>53</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="4" t="s">
         <v>214</v>
       </c>
       <c r="N76" t="s">
@@ -7887,7 +7890,7 @@
       <c r="L77" t="s">
         <v>53</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="4" t="s">
         <v>221</v>
       </c>
       <c r="N77" t="s">
@@ -7931,7 +7934,7 @@
       <c r="L78" t="s">
         <v>53</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N78" t="s">
@@ -7975,7 +7978,7 @@
       <c r="L79" t="s">
         <v>53</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" s="4" t="s">
         <v>237</v>
       </c>
       <c r="N79" t="s">
@@ -8019,7 +8022,7 @@
       <c r="L80" t="s">
         <v>53</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="4" t="s">
         <v>245</v>
       </c>
       <c r="N80" t="s">
@@ -8063,7 +8066,7 @@
       <c r="L81" t="s">
         <v>53</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="4" t="s">
         <v>254</v>
       </c>
       <c r="N81" t="s">
@@ -8107,7 +8110,7 @@
       <c r="L82" t="s">
         <v>53</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="4" t="s">
         <v>261</v>
       </c>
       <c r="N82" t="s">
@@ -8151,7 +8154,7 @@
       <c r="L83" t="s">
         <v>53</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="4" t="s">
         <v>269</v>
       </c>
       <c r="N83" t="s">
@@ -8195,7 +8198,7 @@
       <c r="L84" t="s">
         <v>53</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="4" t="s">
         <v>278</v>
       </c>
       <c r="N84" t="s">
@@ -8239,7 +8242,7 @@
       <c r="L85" t="s">
         <v>53</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="4" t="s">
         <v>286</v>
       </c>
       <c r="N85" t="s">
@@ -8283,7 +8286,7 @@
       <c r="L86" t="s">
         <v>53</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="4" t="s">
         <v>293</v>
       </c>
       <c r="N86" t="s">
@@ -8327,7 +8330,7 @@
       <c r="L87" t="s">
         <v>53</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="4" t="s">
         <v>302</v>
       </c>
       <c r="N87" t="s">
@@ -8371,7 +8374,7 @@
       <c r="L88" t="s">
         <v>53</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="4" t="s">
         <v>309</v>
       </c>
       <c r="N88" t="s">
@@ -8413,7 +8416,7 @@
       <c r="L89" t="s">
         <v>53</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" s="4" t="s">
         <v>317</v>
       </c>
       <c r="N89" t="s">
@@ -8457,7 +8460,7 @@
       <c r="L90" t="s">
         <v>53</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" s="4" t="s">
         <v>326</v>
       </c>
       <c r="N90" t="s">
@@ -8501,7 +8504,7 @@
       <c r="L91" t="s">
         <v>53</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" s="4" t="s">
         <v>334</v>
       </c>
       <c r="N91" t="s">
@@ -8543,7 +8546,7 @@
       <c r="L92" t="s">
         <v>53</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" s="4" t="s">
         <v>342</v>
       </c>
       <c r="N92" t="s">
@@ -8587,7 +8590,7 @@
       <c r="L93" t="s">
         <v>53</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" s="4" t="s">
         <v>350</v>
       </c>
       <c r="N93" t="s">
@@ -8631,7 +8634,7 @@
       <c r="L94" t="s">
         <v>53</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" s="4" t="s">
         <v>358</v>
       </c>
       <c r="N94" t="s">
@@ -8675,7 +8678,7 @@
       <c r="L95" t="s">
         <v>53</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" s="4" t="s">
         <v>366</v>
       </c>
       <c r="N95" t="s">
@@ -8719,7 +8722,7 @@
       <c r="L96" t="s">
         <v>53</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96" s="4" t="s">
         <v>375</v>
       </c>
       <c r="N96" t="s">
@@ -8761,7 +8764,7 @@
       <c r="L97" t="s">
         <v>53</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" s="4" t="s">
         <v>383</v>
       </c>
       <c r="N97" t="s">
@@ -8805,7 +8808,7 @@
       <c r="L98" t="s">
         <v>53</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="4" t="s">
         <v>390</v>
       </c>
       <c r="N98" t="s">
@@ -8849,7 +8852,7 @@
       <c r="L99" t="s">
         <v>53</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" s="4" t="s">
         <v>399</v>
       </c>
       <c r="N99" t="s">
@@ -8893,7 +8896,7 @@
       <c r="L100" t="s">
         <v>53</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" s="4" t="s">
         <v>407</v>
       </c>
       <c r="N100" t="s">
@@ -8937,7 +8940,7 @@
       <c r="L101" t="s">
         <v>53</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101" s="4" t="s">
         <v>415</v>
       </c>
       <c r="N101" t="s">
@@ -8981,7 +8984,7 @@
       <c r="L102" t="s">
         <v>53</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" s="4" t="s">
         <v>423</v>
       </c>
       <c r="N102" t="s">
@@ -9025,7 +9028,7 @@
       <c r="L103" t="s">
         <v>53</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" s="4" t="s">
         <v>431</v>
       </c>
       <c r="N103" t="s">
@@ -9066,7 +9069,7 @@
       <c r="L104" t="s">
         <v>53</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" s="4" t="s">
         <v>438</v>
       </c>
       <c r="N104" t="s">
@@ -9105,7 +9108,7 @@
       <c r="L105" t="s">
         <v>53</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N105" t="s">
@@ -9149,7 +9152,7 @@
       <c r="L106" t="s">
         <v>53</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" s="4" t="s">
         <v>63</v>
       </c>
       <c r="N106" t="s">
@@ -9193,7 +9196,7 @@
       <c r="L107" t="s">
         <v>53</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107" s="4" t="s">
         <v>71</v>
       </c>
       <c r="N107" t="s">
@@ -9237,7 +9240,7 @@
       <c r="L108" t="s">
         <v>53</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" s="4" t="s">
         <v>78</v>
       </c>
       <c r="N108" t="s">
@@ -9281,7 +9284,7 @@
       <c r="L109" t="s">
         <v>53</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109" s="4" t="s">
         <v>87</v>
       </c>
       <c r="N109" t="s">
@@ -9325,7 +9328,7 @@
       <c r="L110" t="s">
         <v>53</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110" s="4" t="s">
         <v>94</v>
       </c>
       <c r="N110" t="s">
@@ -9369,7 +9372,7 @@
       <c r="L111" t="s">
         <v>53</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111" s="4" t="s">
         <v>101</v>
       </c>
       <c r="N111" t="s">
@@ -9413,7 +9416,7 @@
       <c r="L112" t="s">
         <v>53</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112" s="4" t="s">
         <v>110</v>
       </c>
       <c r="N112" t="s">
@@ -9457,7 +9460,7 @@
       <c r="L113" t="s">
         <v>53</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113" s="4" t="s">
         <v>118</v>
       </c>
       <c r="N113" t="s">
@@ -9501,7 +9504,7 @@
       <c r="L114" t="s">
         <v>53</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114" s="4" t="s">
         <v>126</v>
       </c>
       <c r="N114" t="s">
@@ -9545,7 +9548,7 @@
       <c r="L115" t="s">
         <v>53</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115" s="4" t="s">
         <v>135</v>
       </c>
       <c r="N115" t="s">
@@ -9589,7 +9592,7 @@
       <c r="L116" t="s">
         <v>53</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116" s="4" t="s">
         <v>143</v>
       </c>
       <c r="N116" t="s">
@@ -9633,7 +9636,7 @@
       <c r="L117" t="s">
         <v>53</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117" s="4" t="s">
         <v>150</v>
       </c>
       <c r="N117" t="s">
@@ -9677,7 +9680,7 @@
       <c r="L118" t="s">
         <v>53</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118" s="4" t="s">
         <v>159</v>
       </c>
       <c r="N118" t="s">
@@ -9721,7 +9724,7 @@
       <c r="L119" t="s">
         <v>53</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119" s="4" t="s">
         <v>167</v>
       </c>
       <c r="N119" t="s">
@@ -9765,7 +9768,7 @@
       <c r="L120" t="s">
         <v>53</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120" s="4" t="s">
         <v>175</v>
       </c>
       <c r="N120" t="s">
@@ -9809,7 +9812,7 @@
       <c r="L121" t="s">
         <v>53</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121" s="4" t="s">
         <v>183</v>
       </c>
       <c r="N121" t="s">
@@ -9853,7 +9856,7 @@
       <c r="L122" t="s">
         <v>53</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" s="4" t="s">
         <v>191</v>
       </c>
       <c r="N122" t="s">
@@ -9897,7 +9900,7 @@
       <c r="L123" t="s">
         <v>53</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123" s="4" t="s">
         <v>198</v>
       </c>
       <c r="N123" t="s">
@@ -9941,7 +9944,7 @@
       <c r="L124" t="s">
         <v>53</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124" s="4" t="s">
         <v>207</v>
       </c>
       <c r="N124" t="s">
@@ -9985,7 +9988,7 @@
       <c r="L125" t="s">
         <v>53</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" s="4" t="s">
         <v>214</v>
       </c>
       <c r="N125" t="s">
@@ -10029,7 +10032,7 @@
       <c r="L126" t="s">
         <v>53</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126" s="4" t="s">
         <v>221</v>
       </c>
       <c r="N126" t="s">
@@ -10073,7 +10076,7 @@
       <c r="L127" t="s">
         <v>53</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N127" t="s">
@@ -10117,7 +10120,7 @@
       <c r="L128" t="s">
         <v>53</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" s="4" t="s">
         <v>237</v>
       </c>
       <c r="N128" t="s">
@@ -10161,7 +10164,7 @@
       <c r="L129" t="s">
         <v>53</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" s="4" t="s">
         <v>245</v>
       </c>
       <c r="N129" t="s">
@@ -10205,7 +10208,7 @@
       <c r="L130" t="s">
         <v>53</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130" s="4" t="s">
         <v>254</v>
       </c>
       <c r="N130" t="s">
@@ -10249,7 +10252,7 @@
       <c r="L131" t="s">
         <v>53</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131" s="4" t="s">
         <v>261</v>
       </c>
       <c r="N131" t="s">
@@ -10293,7 +10296,7 @@
       <c r="L132" t="s">
         <v>53</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132" s="4" t="s">
         <v>269</v>
       </c>
       <c r="N132" t="s">
@@ -10337,7 +10340,7 @@
       <c r="L133" t="s">
         <v>53</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" s="4" t="s">
         <v>278</v>
       </c>
       <c r="N133" t="s">
@@ -10381,7 +10384,7 @@
       <c r="L134" t="s">
         <v>53</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134" s="4" t="s">
         <v>286</v>
       </c>
       <c r="N134" t="s">
@@ -10425,7 +10428,7 @@
       <c r="L135" t="s">
         <v>53</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135" s="4" t="s">
         <v>293</v>
       </c>
       <c r="N135" t="s">
@@ -10469,7 +10472,7 @@
       <c r="L136" t="s">
         <v>53</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136" s="4" t="s">
         <v>302</v>
       </c>
       <c r="N136" t="s">
@@ -10513,7 +10516,7 @@
       <c r="L137" t="s">
         <v>53</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137" s="4" t="s">
         <v>309</v>
       </c>
       <c r="N137" t="s">
@@ -10557,7 +10560,7 @@
       <c r="L138" t="s">
         <v>53</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138" s="4" t="s">
         <v>317</v>
       </c>
       <c r="N138" t="s">
@@ -10601,7 +10604,7 @@
       <c r="L139" t="s">
         <v>53</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139" s="4" t="s">
         <v>326</v>
       </c>
       <c r="N139" t="s">
@@ -10645,7 +10648,7 @@
       <c r="L140" t="s">
         <v>53</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140" s="4" t="s">
         <v>334</v>
       </c>
       <c r="N140" t="s">
@@ -10689,7 +10692,7 @@
       <c r="L141" t="s">
         <v>53</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141" s="4" t="s">
         <v>342</v>
       </c>
       <c r="N141" t="s">
@@ -10733,7 +10736,7 @@
       <c r="L142" t="s">
         <v>53</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142" s="4" t="s">
         <v>350</v>
       </c>
       <c r="N142" t="s">
@@ -10777,7 +10780,7 @@
       <c r="L143" t="s">
         <v>53</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143" s="4" t="s">
         <v>358</v>
       </c>
       <c r="N143" t="s">
@@ -10821,7 +10824,7 @@
       <c r="L144" t="s">
         <v>53</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144" s="4" t="s">
         <v>366</v>
       </c>
       <c r="N144" t="s">
@@ -10865,7 +10868,7 @@
       <c r="L145" t="s">
         <v>53</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145" s="4" t="s">
         <v>375</v>
       </c>
       <c r="N145" t="s">
@@ -10909,7 +10912,7 @@
       <c r="L146" t="s">
         <v>53</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146" s="4" t="s">
         <v>383</v>
       </c>
       <c r="N146" t="s">
@@ -10953,7 +10956,7 @@
       <c r="L147" t="s">
         <v>53</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147" s="4" t="s">
         <v>390</v>
       </c>
       <c r="N147" t="s">
@@ -10997,7 +11000,7 @@
       <c r="L148" t="s">
         <v>53</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148" s="4" t="s">
         <v>399</v>
       </c>
       <c r="N148" t="s">
@@ -11041,7 +11044,7 @@
       <c r="L149" t="s">
         <v>53</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149" s="4" t="s">
         <v>407</v>
       </c>
       <c r="N149" t="s">
@@ -11085,7 +11088,7 @@
       <c r="L150" t="s">
         <v>53</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150" s="4" t="s">
         <v>415</v>
       </c>
       <c r="N150" t="s">
@@ -11129,7 +11132,7 @@
       <c r="L151" t="s">
         <v>53</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151" s="4" t="s">
         <v>423</v>
       </c>
       <c r="N151" t="s">
@@ -11173,7 +11176,7 @@
       <c r="L152" t="s">
         <v>53</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152" s="4" t="s">
         <v>431</v>
       </c>
       <c r="N152" t="s">
@@ -11214,7 +11217,7 @@
       <c r="L153" t="s">
         <v>53</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153" s="4" t="s">
         <v>438</v>
       </c>
       <c r="N153" t="s">
@@ -11226,7 +11229,6 @@
     </row>
     <row r="154" spans="2:12">
       <c r="B154"/>
-      <c r="C154" s="3"/>
       <c r="D154"/>
       <c r="H154"/>
       <c r="I154"/>
@@ -11236,7 +11238,6 @@
     </row>
     <row r="155" spans="2:12">
       <c r="B155"/>
-      <c r="C155" s="3"/>
       <c r="D155"/>
       <c r="H155"/>
       <c r="I155"/>
@@ -11246,7 +11247,6 @@
     </row>
     <row r="156" spans="2:12">
       <c r="B156"/>
-      <c r="C156" s="3"/>
       <c r="D156"/>
       <c r="H156"/>
       <c r="I156"/>
@@ -11256,7 +11256,6 @@
     </row>
     <row r="157" spans="2:12">
       <c r="B157"/>
-      <c r="C157" s="3"/>
       <c r="D157"/>
       <c r="H157"/>
       <c r="I157"/>
@@ -11266,7 +11265,6 @@
     </row>
     <row r="158" spans="2:12">
       <c r="B158"/>
-      <c r="C158" s="3"/>
       <c r="D158"/>
       <c r="H158"/>
       <c r="I158"/>
@@ -11276,7 +11274,6 @@
     </row>
     <row r="159" spans="2:12">
       <c r="B159"/>
-      <c r="C159" s="3"/>
       <c r="D159"/>
       <c r="H159"/>
       <c r="I159"/>
@@ -11286,7 +11283,6 @@
     </row>
     <row r="160" spans="2:12">
       <c r="B160"/>
-      <c r="C160" s="3"/>
       <c r="D160"/>
       <c r="H160"/>
       <c r="I160"/>
@@ -11296,7 +11292,6 @@
     </row>
     <row r="161" spans="2:12">
       <c r="B161"/>
-      <c r="C161" s="3"/>
       <c r="D161"/>
       <c r="H161"/>
       <c r="I161"/>
@@ -11306,7 +11301,6 @@
     </row>
     <row r="162" spans="2:12">
       <c r="B162"/>
-      <c r="C162" s="3"/>
       <c r="D162"/>
       <c r="H162"/>
       <c r="I162"/>
@@ -11316,7 +11310,6 @@
     </row>
     <row r="163" spans="2:12">
       <c r="B163"/>
-      <c r="C163" s="3"/>
       <c r="D163"/>
       <c r="H163"/>
       <c r="I163"/>
@@ -11326,7 +11319,6 @@
     </row>
     <row r="164" spans="2:12">
       <c r="B164"/>
-      <c r="C164" s="3"/>
       <c r="D164"/>
       <c r="H164"/>
       <c r="I164"/>
@@ -11336,7 +11328,6 @@
     </row>
     <row r="165" spans="2:12">
       <c r="B165"/>
-      <c r="C165" s="3"/>
       <c r="D165"/>
       <c r="H165"/>
       <c r="I165"/>
@@ -11346,7 +11337,6 @@
     </row>
     <row r="166" spans="2:12">
       <c r="B166"/>
-      <c r="C166" s="3"/>
       <c r="D166"/>
       <c r="H166"/>
       <c r="I166"/>
@@ -11356,7 +11346,6 @@
     </row>
     <row r="167" spans="2:12">
       <c r="B167"/>
-      <c r="C167" s="3"/>
       <c r="D167"/>
       <c r="H167"/>
       <c r="I167"/>
@@ -11366,7 +11355,6 @@
     </row>
     <row r="168" spans="2:12">
       <c r="B168"/>
-      <c r="C168" s="3"/>
       <c r="D168"/>
       <c r="H168"/>
       <c r="I168"/>
@@ -11376,7 +11364,6 @@
     </row>
     <row r="169" spans="2:12">
       <c r="B169"/>
-      <c r="C169" s="3"/>
       <c r="D169"/>
       <c r="H169"/>
       <c r="I169"/>
@@ -11386,7 +11373,6 @@
     </row>
     <row r="170" spans="2:12">
       <c r="B170"/>
-      <c r="C170" s="3"/>
       <c r="D170"/>
       <c r="H170"/>
       <c r="I170"/>
@@ -11396,7 +11382,6 @@
     </row>
     <row r="171" spans="2:12">
       <c r="B171"/>
-      <c r="C171" s="3"/>
       <c r="D171"/>
       <c r="H171"/>
       <c r="I171"/>
@@ -11406,7 +11391,6 @@
     </row>
     <row r="172" spans="2:12">
       <c r="B172"/>
-      <c r="C172" s="3"/>
       <c r="D172"/>
       <c r="H172"/>
       <c r="I172"/>
@@ -11416,7 +11400,6 @@
     </row>
     <row r="173" spans="2:12">
       <c r="B173"/>
-      <c r="C173" s="3"/>
       <c r="D173"/>
       <c r="H173"/>
       <c r="I173"/>
@@ -11426,7 +11409,6 @@
     </row>
     <row r="174" spans="2:12">
       <c r="B174"/>
-      <c r="C174" s="3"/>
       <c r="D174"/>
       <c r="H174"/>
       <c r="I174"/>
@@ -11436,7 +11418,6 @@
     </row>
     <row r="175" spans="2:12">
       <c r="B175"/>
-      <c r="C175" s="3"/>
       <c r="D175"/>
       <c r="H175"/>
       <c r="I175"/>
@@ -11446,7 +11427,6 @@
     </row>
     <row r="176" spans="2:12">
       <c r="B176"/>
-      <c r="C176" s="3"/>
       <c r="D176"/>
       <c r="H176"/>
       <c r="I176"/>
@@ -11456,7 +11436,6 @@
     </row>
     <row r="177" spans="2:12">
       <c r="B177"/>
-      <c r="C177" s="3"/>
       <c r="D177"/>
       <c r="H177"/>
       <c r="I177"/>

--- a/Excel/Common/Tech.xlsx
+++ b/Excel/Common/Tech.xlsx
@@ -4569,7 +4569,7 @@
   <dimension ref="A1:O177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
